--- a/ExtractSREO/Standardized-David T.xlsx
+++ b/ExtractSREO/Standardized-David T.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,7 +562,11 @@
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>SF</t>
@@ -589,21 +593,9 @@
           <t>Fay Servicing</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>10/1/2050</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$170,000.00 </t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$170,000.00 </t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t xml:space="preserve">$10,673.00 </t>
@@ -614,11 +606,7 @@
           <t xml:space="preserve">$11,800.00 </t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t xml:space="preserve">$325,000.00 </t>
@@ -626,16 +614,8 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
     </row>
@@ -651,7 +631,11 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1984/1987</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>MF</t>
@@ -678,21 +662,9 @@
           <t>Fannie Mae (M&amp;T Realty)</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>6/1/2025</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,733,258.00 </t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,968,287.00 </t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t xml:space="preserve">$266,026.00 </t>
@@ -703,11 +675,7 @@
           <t xml:space="preserve">$542,788.00 </t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t xml:space="preserve">$10,855,760.00 </t>
@@ -715,16 +683,8 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
     </row>
@@ -740,7 +700,11 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>MF</t>
@@ -767,21 +731,9 @@
           <t>Fannie Mae (M&amp;T Realty)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>8/1/2026</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$9,329,624.00 </t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$12,658,051.00 </t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t xml:space="preserve">$797,828.00 </t>
@@ -792,11 +744,7 @@
           <t xml:space="preserve">$1,741,444.00 </t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t xml:space="preserve">$34,828,880.00 </t>
@@ -804,16 +752,8 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
     </row>
@@ -829,7 +769,11 @@
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>MF</t>
@@ -856,21 +800,9 @@
           <t>Freddie Mac - Wells Fargo</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2/1/2028</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$5,016,743.00 </t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$5,016,743.00 </t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t xml:space="preserve">$228,858.00 </t>
@@ -881,11 +813,7 @@
           <t xml:space="preserve">$504,220.00 </t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
           <t xml:space="preserve">$9,167,636.00 </t>
@@ -893,16 +821,8 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
     </row>
@@ -918,7 +838,11 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>MF</t>
@@ -945,21 +869,9 @@
           <t>Fannie Mae - Dougherty Mortgage</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>12/1/2028</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$10,754,707.00 </t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$13,401,660.00 </t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t xml:space="preserve">$630,988.00 </t>
@@ -970,11 +882,7 @@
           <t xml:space="preserve">$1,320,180.00 </t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
           <t xml:space="preserve">$26,403,400.00 </t>
@@ -982,16 +890,8 @@
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
     </row>
@@ -1007,7 +907,11 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1034,21 +938,9 @@
           <t>Fannie Mae - Wells Fargo</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>3/31/2029</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$5,365,000.00 </t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$5,365,000.00 </t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t xml:space="preserve">$260,652.00 </t>
@@ -1059,11 +951,7 @@
           <t xml:space="preserve">$524,700.00 </t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
           <t xml:space="preserve">$9,547,163.00 </t>
@@ -1071,16 +959,8 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>4.805</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
     </row>
@@ -1096,7 +976,11 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1123,21 +1007,9 @@
           <t>Fannie Mae - Prudential</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>8/1/2029</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$9,200,000.00 </t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$9,200,000.00 </t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t xml:space="preserve">$568,602.00 </t>
@@ -1148,11 +1020,7 @@
           <t xml:space="preserve">$756,721.00 </t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
           <t xml:space="preserve">$15,134,420.00 </t>
@@ -1160,16 +1028,8 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
     </row>
@@ -1185,7 +1045,11 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1212,21 +1076,9 @@
           <t>Fannie Mae - Wells Fargo</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>11/1/2029</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$6,713,000.00 </t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$6,713,000.00 </t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t xml:space="preserve">$313,949.00 </t>
@@ -1237,11 +1089,7 @@
           <t xml:space="preserve">$581,880.00 </t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
           <t xml:space="preserve">$9,482,000.00 </t>
@@ -1249,16 +1097,8 @@
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
     </row>
@@ -1274,7 +1114,11 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1301,21 +1145,9 @@
           <t>Fannie Mae - Prudential</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>12/1/2029</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$20,775,000.00 </t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$20,775,000.00 </t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t xml:space="preserve">$888,609.00 </t>
@@ -1326,11 +1158,7 @@
           <t xml:space="preserve">$1,012,000.00 </t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
           <t xml:space="preserve">$28,465,000.00 </t>
@@ -1338,16 +1166,8 @@
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
     </row>
@@ -1363,7 +1183,11 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1390,21 +1214,9 @@
           <t>Fannie Mae -Wells/Bank</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>7/16/2030</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$13,611,000.00 </t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$13,611,000.00 </t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t xml:space="preserve">$674,196.00 </t>
@@ -1415,11 +1227,7 @@
           <t xml:space="preserve">$1,077,987.00 </t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
           <t xml:space="preserve">$21,559,740.00 </t>
@@ -1427,16 +1235,8 @@
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
     </row>
@@ -1452,7 +1252,11 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1479,21 +1283,9 @@
           <t>Freddie Mac - Wells Fargo</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>11/1/2032</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$12,093,000.00 </t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$12,093,000.00 </t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t xml:space="preserve">$510,000.00 </t>
@@ -1504,11 +1296,7 @@
           <t xml:space="preserve">$1,135,000.00 </t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
           <t xml:space="preserve">$21,650,000.00 </t>
@@ -1516,16 +1304,8 @@
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
     </row>
@@ -1541,7 +1321,11 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1568,21 +1352,9 @@
           <t>Fannie Mae  - Prudential</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2/28/2031</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$19,350,000.00 </t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$19,350,000.00 </t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t xml:space="preserve">$901,584.00 </t>
@@ -1593,11 +1365,7 @@
           <t xml:space="preserve">$1,997,508.00 </t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
           <t xml:space="preserve">$39,950,160.00 </t>
@@ -1605,16 +1373,8 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
     </row>
@@ -1630,7 +1390,11 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1657,21 +1421,9 @@
           <t>Fannie Mae - Sabal</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>8/1/2031</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$5,950,000.00 </t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$5,950,000.00 </t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t xml:space="preserve">$260,439.00 </t>
@@ -1682,11 +1434,7 @@
           <t xml:space="preserve">$733,348.00 </t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
           <t xml:space="preserve">$12,055,800.00 </t>
@@ -1694,16 +1442,8 @@
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
     </row>
@@ -1719,7 +1459,11 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1746,21 +1490,9 @@
           <t>Fannie Mae -Wells/Bank</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>3/31/2031</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$17,600,000.00 </t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$17,600,000.00 </t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t xml:space="preserve">$931,954.00 </t>
@@ -1771,11 +1503,7 @@
           <t xml:space="preserve">$1,310,645.00 </t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
           <t xml:space="preserve">$24,000,000.00 </t>
@@ -1783,16 +1511,8 @@
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
     </row>
@@ -1808,7 +1528,11 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1835,21 +1559,9 @@
           <t>Fannie Mae - Wells Fargo</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>4/30/2030</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$21,975,000.00 </t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$21,975,000.00 </t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t xml:space="preserve">$747,156.00 </t>
@@ -1860,11 +1572,7 @@
           <t xml:space="preserve">$1,689,984.00 </t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t xml:space="preserve">$33,799,680.00 </t>
@@ -1872,16 +1580,8 @@
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
     </row>
@@ -1897,7 +1597,11 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>MF</t>
@@ -1924,21 +1628,9 @@
           <t>Fannie Mae - Wells Fargo</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>4/30/2030</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$18,900,000.00 </t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$18,900,000.00 </t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t xml:space="preserve">$642,600.00 </t>
@@ -1949,11 +1641,7 @@
           <t xml:space="preserve">$1,401,648.00 </t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
           <t xml:space="preserve">$28,032,960.00 </t>
@@ -1961,16 +1649,8 @@
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
     </row>
@@ -1986,7 +1666,11 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2013,21 +1697,9 @@
           <t>Fannie Mae -Wells/Bank</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>12/31/2032</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$9,920,000.00 </t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$9,920,000.00 </t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t xml:space="preserve">$520,000.00 </t>
@@ -2038,11 +1710,7 @@
           <t xml:space="preserve">$675,000.00 </t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t xml:space="preserve">$12,500,000.00 </t>
@@ -2050,16 +1718,8 @@
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>3.285</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
     </row>
@@ -2075,7 +1735,11 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2102,21 +1766,9 @@
           <t>Freddie Mac - Berkadia</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>12/31/2032</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$7,600,000.00 </t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$7,600,000.00 </t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t xml:space="preserve">$437,434.00 </t>
@@ -2127,11 +1779,7 @@
           <t xml:space="preserve">$667,737.00 </t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t xml:space="preserve">$11,650,000.00 </t>
@@ -2139,16 +1787,8 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
     </row>
@@ -2164,7 +1804,11 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2191,21 +1835,9 @@
           <t>Fannie Mae - Wells Fargo</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>10/1/2027</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,730,000.00 </t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$2,730,000.00 </t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t xml:space="preserve">$100,992.00 </t>
@@ -2216,11 +1848,7 @@
           <t xml:space="preserve">$268,923.00 </t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t xml:space="preserve">$4,500,000.00 </t>
@@ -2228,16 +1856,8 @@
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
     </row>
@@ -2253,7 +1873,11 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2280,21 +1904,9 @@
           <t>Freddie Mac - Wells Fargo</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>9/1/2032</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$14,015,000.00 </t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$14,015,000.00 </t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t xml:space="preserve">$437,268.00 </t>
@@ -2305,11 +1917,7 @@
           <t xml:space="preserve">$1,072,217.00 </t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t xml:space="preserve">$21,444,336.00 </t>
@@ -2317,16 +1925,8 @@
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
     </row>
@@ -2342,7 +1942,11 @@
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2369,21 +1973,9 @@
           <t>Freddie Mac - Wells Fargo</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>9/1/2032</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$21,560,000.00 </t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$21,560,000.00 </t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t xml:space="preserve">$670,512.00 </t>
@@ -2394,11 +1986,7 @@
           <t xml:space="preserve">$1,605,097.00 </t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t xml:space="preserve">$32,101,943.00 </t>
@@ -2406,16 +1994,8 @@
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
     </row>
@@ -2431,7 +2011,11 @@
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2458,21 +2042,9 @@
           <t>Fannie Mae - CBRE</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>6/1/2026</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$11,250,000.00 </t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$11,250,000.00 </t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t xml:space="preserve">$465,504.00 </t>
@@ -2483,11 +2055,7 @@
           <t xml:space="preserve">$994,549.00 </t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t xml:space="preserve">$18,350,000.00 </t>
@@ -2495,16 +2063,8 @@
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
     </row>
@@ -2520,7 +2080,11 @@
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>MF</t>
@@ -2547,21 +2111,9 @@
           <t>Freddie Mac - Wells Fargo</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2/1/2031</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$28,500,000.00 </t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$28,500,000.00 </t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t xml:space="preserve">$862,400.00 </t>
@@ -2572,11 +2124,7 @@
           <t xml:space="preserve">$2,285,514.00 </t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t xml:space="preserve">$38,000,000.00 </t>
@@ -2584,16 +2132,8 @@
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
     </row>
